--- a/Task_List.xlsx
+++ b/Task_List.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DGMU_System_Collection\DGMU_HRMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT_Projects\SGC_HRMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C410D5BA-445F-45E2-869C-D461AC746164}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Task List" sheetId="1" r:id="rId1"/>
     <sheet name="Task CheckList" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="141">
   <si>
     <t>PROGRESS</t>
   </si>
@@ -428,11 +427,100 @@
   <si>
     <t>Gov't Due computation Less the Holiday Amount</t>
   </si>
+  <si>
+    <t>Adding New Tab Skills and Training</t>
+  </si>
+  <si>
+    <t>• EmpData</t>
+  </si>
+  <si>
+    <t>02.28.2019</t>
+  </si>
+  <si>
+    <t>• Adding stored procedures.</t>
+  </si>
+  <si>
+    <t>Adding New Tab Work Evaluation / Performance</t>
+  </si>
+  <si>
+    <t>08.14.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>08.15.2019</t>
+  </si>
+  <si>
+    <t>Adding New Tab Offenses Record</t>
+  </si>
+  <si>
+    <t>• Adding new table and Stored procedures
+[TABLES]
+•[HR]. Utility_Work_Evaluation_Criteria_RF
+•[HR]. Utility_Work_Evaluation_Ratings_RF
+•[HR]. Employee_Work_Evaluation_Hdr_MD
+•[HR]. Employee_Work_Evaluation_Rows_MD
+[Stored Procedures]
+•[HR].[spINSERTUPDATE_EMPLOYEE_WORK_EVALUATION]
+• [HR].[spGET_WORK_EVALUATION_CRITERIA_LIST]
+• [HR].[spGET_WORK_EVALUATION_RATINGS_LIST]
+• [HR].[spGET_EMPLOYEE_WORK_EVALUATION_REMARKS]
+• [HR].[spGET_EMPLOYEE_WORK_EVALUATION_RESULT]</t>
+  </si>
+  <si>
+    <t>Create an employee work evaluation as reference for performance and the value of Employee.</t>
+  </si>
+  <si>
+    <t>Create an offenses committed by employee to be recorded for reference in decision of employment</t>
+  </si>
+  <si>
+    <t>Adding new table and stored procedures
+[Table]
+•[HR].[Employee_Offenses_MD]
+[Stored Procedures]
+•[HR].[spINSERTUPDATE_EMPLOYEE_OFFENSES]
+•[HR].[spGET_EMPLOYEE_OFFENSES]</t>
+  </si>
+  <si>
+    <t>BJ- Multiple Entry New Employee Button</t>
+  </si>
+  <si>
+    <t>08.31.2019</t>
+  </si>
+  <si>
+    <t>09.01.2019</t>
+  </si>
+  <si>
+    <t>Create Modal Loading / update progress</t>
+  </si>
+  <si>
+    <t>Addding new image for loading.</t>
+  </si>
+  <si>
+    <t>BJ- Leave Balance equals to zero when creating</t>
+  </si>
+  <si>
+    <t>• dataEntryEmployeeLeave</t>
+  </si>
+  <si>
+    <t>Update Stored procedure for leave setup</t>
+  </si>
+  <si>
+    <t>[Stored Procedures]
+• [Payroll].[spINSERT_UPDATE_EMPLOYEE_LEAVES_SETUP]</t>
+  </si>
+  <si>
+    <t>Request to allow leave entry even no balance</t>
+  </si>
+  <si>
+    <t>Record and create prompt message for allowing entry even no balance.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -568,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -640,9 +728,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -665,6 +750,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -949,11 +1040,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="D24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,21 +1057,21 @@
     <col min="6" max="6" width="15.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.140625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="57.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.85546875" style="33" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -1007,7 +1098,7 @@
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="34" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1036,7 +1127,7 @@
       <c r="H3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
@@ -1063,7 +1154,7 @@
       <c r="H4" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:15" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -1090,7 +1181,7 @@
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:15" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -1117,7 +1208,7 @@
       <c r="H6" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="17" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1146,7 +1237,7 @@
       <c r="H7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1175,7 +1266,7 @@
       <c r="H8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1204,7 +1295,7 @@
       <c r="H9" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="17"/>
       <c r="O9" s="8" t="s">
         <v>1</v>
       </c>
@@ -1234,7 +1325,7 @@
       <c r="H10" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="17"/>
       <c r="O10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1264,7 +1355,7 @@
       <c r="H11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="17"/>
       <c r="O11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1294,7 +1385,7 @@
       <c r="H12" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="17"/>
       <c r="O12" s="6" t="s">
         <v>7</v>
       </c>
@@ -1324,7 +1415,7 @@
       <c r="H13" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="17"/>
       <c r="O13" s="6" t="s">
         <v>10</v>
       </c>
@@ -1354,7 +1445,7 @@
       <c r="H14" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="17"/>
       <c r="O14" s="6" t="s">
         <v>9</v>
       </c>
@@ -1384,7 +1475,7 @@
       <c r="H15" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:15" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
@@ -1411,7 +1502,7 @@
       <c r="H16" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
@@ -1438,7 +1529,7 @@
       <c r="H17" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
@@ -1465,7 +1556,7 @@
       <c r="H18" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="17" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1490,7 +1581,7 @@
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="17" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1517,7 +1608,7 @@
       <c r="H20" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="17" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1546,7 +1637,7 @@
       <c r="H21" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="17" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1575,7 +1666,7 @@
       <c r="H22" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="17" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1583,79 +1674,171 @@
       <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="15">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" s="6" customFormat="1" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="15">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="6" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="15">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="15">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="15">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="7"/>
+      <c r="B28" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="15">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
@@ -1668,7 +1851,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="11"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="7"/>
+      <c r="I29" s="17"/>
     </row>
     <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
@@ -1680,8 +1863,10 @@
       <c r="E30" s="10"/>
       <c r="F30" s="13"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="7"/>
+      <c r="H30" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
@@ -1694,27 +1879,27 @@
       <c r="F31" s="13"/>
       <c r="G31" s="11"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="7"/>
+      <c r="I31" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E31" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E31">
       <formula1>$O$10:$O$13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F512FBA6-977C-48D1-AE52-CFB8B6066DAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1723,27 +1908,27 @@
     <col min="1" max="1" width="4.5703125" style="24" customWidth="1"/>
     <col min="2" max="2" width="78.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="73.5703125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73.5703125" style="25" customWidth="1"/>
     <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="29" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:15" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1757,10 +1942,10 @@
       <c r="C2" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="26">
         <v>43493</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="26">
         <v>43493</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -1777,10 +1962,10 @@
       <c r="C3" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="26">
         <v>43493</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <v>43493</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1797,10 +1982,10 @@
       <c r="C4" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="26">
         <v>43493</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="26">
         <v>43493</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -1817,10 +2002,10 @@
       <c r="C5" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <v>43493</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="26">
         <v>43493</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -1834,19 +2019,19 @@
       <c r="A6" s="24">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <v>43493</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="26">
         <v>43493</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1854,19 +2039,19 @@
       <c r="A7" s="24">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="26">
         <v>43495</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <v>43495</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>115</v>
       </c>
       <c r="O7" t="s">
@@ -1877,16 +2062,16 @@
       <c r="A8" s="24">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="26">
         <v>43495</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="6"/>
       <c r="O8" s="24" t="s">
         <v>7</v>
@@ -1896,8 +2081,8 @@
       <c r="A9" s="24">
         <v>8</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
       <c r="O9" t="s">
         <v>97</v>
       </c>
@@ -1906,8 +2091,8 @@
       <c r="A10" s="24">
         <v>9</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
       <c r="O10" t="s">
         <v>98</v>
       </c>
@@ -1916,221 +2101,221 @@
       <c r="A11" s="24">
         <v>10</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>11</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>12</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>13</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>14</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>15</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>16</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>17</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>18</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>19</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>20</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>21</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>22</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>23</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>24</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>25</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>26</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>27</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>28</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
     </row>
     <row r="30" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>29</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
     </row>
     <row r="31" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>30</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
     </row>
     <row r="32" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>31</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
     </row>
     <row r="33" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>32</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
     </row>
     <row r="34" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>33</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
     </row>
     <row r="35" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>34</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
     </row>
     <row r="36" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>35</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
     </row>
     <row r="37" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>36</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
     </row>
     <row r="38" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>37</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
     </row>
     <row r="39" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>38</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
     </row>
     <row r="40" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="27"/>
+      <c r="E40" s="26"/>
     </row>
     <row r="41" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="27"/>
+      <c r="E41" s="26"/>
     </row>
     <row r="42" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="27"/>
+      <c r="E42" s="26"/>
     </row>
     <row r="43" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="27"/>
+      <c r="E43" s="26"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C39" xr:uid="{3A77C920-7629-47BB-B40D-56FBF4448E2E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C39">
       <formula1>$O$6:$O$10</formula1>
     </dataValidation>
   </dataValidations>

--- a/Task_List.xlsx
+++ b/Task_List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Task List" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="165">
   <si>
     <t>PROGRESS</t>
   </si>
@@ -515,6 +515,103 @@
   </si>
   <si>
     <t>Record and create prompt message for allowing entry even no balance.</t>
+  </si>
+  <si>
+    <t>Disable Absent Entry in Payslip Entry Module</t>
+  </si>
+  <si>
+    <t>Enable = false of Textbox Absent in Paslip Entry.</t>
+  </si>
+  <si>
+    <t>Change Formula table of Regular and Special Non working Holiday</t>
+  </si>
+  <si>
+    <t>Update Payroll.Payroll_Fixed_Value_RF (RH and SH)</t>
+  </si>
+  <si>
+    <t>Work Evaluation Section (Insert Date From and Date To) With selection listing of history</t>
+  </si>
+  <si>
+    <t>Table : 
+[HR].[Employee_Work_Evaluation_Hdr_MD] 
+•Added two fields DateStart and DateEnd</t>
+  </si>
+  <si>
+    <t>Skills and Training added the company sponsorship selection and date start</t>
+  </si>
+  <si>
+    <t>Additional Loan Information Loan Reference # for Government Agency and Monthly Amortization</t>
+  </si>
+  <si>
+    <t>Table = [Payroll].[Employee_Loan_MF]
+• Added fields (LoanReferenceNumber, MonthlyAmortization,MA_DateStart and MA_DateEnd)
+SP = [Payroll].[spINSERT_UPDATE_EMPLOYEE_LOAN]</t>
+  </si>
+  <si>
+    <t>Table = [HR].[Employee_SkillsTraining_MD]
+• Added two fields (StartTrainingDate and IsCompanySponsor)
+SP = [HR].[spINSERTUPDATE_EMPLOYEE_SKILLSTRAINING] 
+ [HR].[spGET_EMPLOYEE_SKILLSTRAINING]</t>
+  </si>
+  <si>
+    <t>New Module for Employee Transfer Company</t>
+  </si>
+  <si>
+    <t>New Table : 
+Employee_Company_Transfer_RF
+• Add new row data in menu name : EMPLOYEE COMPANY TRANSFER
+• Add new column in Stored procedure [HR].[spGET_EMPLOYEE_LIST_LW] name: CompanyCode
+SP = [HR].[spINSERTUPDATE_EMPLOYEE_TRANSFER] and [HR].[spGET_EMPLOYEE_COMPANY_HISTORY]</t>
+  </si>
+  <si>
+    <t>OT Voucher Pay Change Formula, note OT will not included in payslip process</t>
+  </si>
+  <si>
+    <t>Added new field in Table Payroll_Voucher_Employee_TF
+• AdditionalWorkDays
+• OTHours
+SP = [Payroll].[spINSERT_UPDATE_EMPLOYEE_VOUCHER_TRANSACTION]
+   = [Payroll].[GET_VOUCHER_OVERTIME_PAY]</t>
+  </si>
+  <si>
+    <t>Display List of Employee doesn't have Gov't ID inputed.</t>
+  </si>
+  <si>
+    <t>Added new View = HR.VR_EMPLOYEE_NO_GOVT_IDs
+New Report Name = No_Govt_IDs.rpt
+New Page = repEmployeeNoGovtID.aspx
+Added to HR.Menu data = repEmployeeNoGovtID.aspx</t>
+  </si>
+  <si>
+    <t>Add Princal plus Interest on Gov't LOAN</t>
+  </si>
+  <si>
+    <t>Display Loan Monthly Amortization automatic on payslip module</t>
+  </si>
+  <si>
+    <t>Add new field in table [Payroll].[Employee_Loan_MF]and [Payroll].[Employee_Loans_Detail_TF]
+• LoanAmountandInterest (float)
+Update SP = [Payroll].[spINSERT_UPDATE_EMPLOYEE_LOAN], [Payroll].[spINSERT_UPDATE_EMPLOYEE_LOAN_PAYMENT], [Payroll].[spGET_EMPLOYEE_LOANS]</t>
+  </si>
+  <si>
+    <t>Update SP = [Payroll].[spGET_EMPLOYEE_SALARY_LOAN_AMORTIZATION], 
+[Payroll].[spGET_EMPLOYEE_PAGIBIG_AMORTIZATION]
+[Payroll].[spGET_EMPLOYEE_SSS_AMORTIZATION]
+Module Affected, Payslip Inhouse</t>
+  </si>
+  <si>
+    <t>Display Evaluation Percentage in Record List</t>
+  </si>
+  <si>
+    <t>SP = [HR].[spGET_EMPLOYEE_WORK_EVALUATION_RECORD]
+Module Affected = empdata.aspx</t>
+  </si>
+  <si>
+    <t>Attachment of Employee Files</t>
+  </si>
+  <si>
+    <t>New Table: [HR].[Employee_Attachment_MD]
+SP = [HR].[spINSERT_EMPLOYEE_ATTACHMENT]</t>
   </si>
 </sst>
 </file>
@@ -557,7 +654,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,6 +664,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -760,6 +863,22 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1899,18 +2018,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="78.42578125" customWidth="1"/>
+    <col min="2" max="2" width="89.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="73.5703125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="84.7109375" style="25" customWidth="1"/>
     <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2077,13 +2196,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+    <row r="9" spans="1:15" s="37" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36">
         <v>8</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="O9" t="s">
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="O9" s="37" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2091,8 +2211,21 @@
       <c r="A10" s="24">
         <v>9</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="B10" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="26">
+        <v>43711</v>
+      </c>
+      <c r="E10" s="26">
+        <v>43715</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>142</v>
+      </c>
       <c r="O10" t="s">
         <v>98</v>
       </c>
@@ -2101,150 +2234,289 @@
       <c r="A11" s="24">
         <v>10</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-    </row>
-    <row r="12" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="26">
+        <v>43711</v>
+      </c>
+      <c r="E11" s="26">
+        <v>43715</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>11</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-    </row>
-    <row r="13" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="26">
+        <v>43716</v>
+      </c>
+      <c r="E12" s="26">
+        <v>43718</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>12</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="26">
+        <v>43717</v>
+      </c>
+      <c r="E13" s="26">
+        <v>43720</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>13</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-    </row>
-    <row r="15" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="26">
+        <v>43726</v>
+      </c>
+      <c r="E14" s="26">
+        <v>43728</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>14</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="B15" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="26">
+        <v>43729</v>
+      </c>
       <c r="E15" s="26"/>
-    </row>
-    <row r="16" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>15</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-    </row>
-    <row r="17" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="26">
+        <v>43733</v>
+      </c>
+      <c r="E16" s="26">
+        <v>43733</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>16</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-    </row>
-    <row r="18" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="26">
+        <v>43734</v>
+      </c>
+      <c r="E17" s="26">
+        <v>43736</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>17</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-    </row>
-    <row r="19" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="26">
+        <v>43735</v>
+      </c>
+      <c r="E18" s="26">
+        <v>43736</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>18</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-    </row>
-    <row r="20" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="26">
+        <v>43735</v>
+      </c>
+      <c r="E19" s="26">
+        <v>43739</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>19</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-    </row>
-    <row r="21" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="26">
+        <v>43737</v>
+      </c>
+      <c r="E20" s="26">
+        <v>43739</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>20</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="B21" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="26">
+        <v>43739</v>
+      </c>
       <c r="E21" s="26"/>
-    </row>
-    <row r="22" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>21</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
     </row>
-    <row r="23" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>22</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
     </row>
-    <row r="24" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>23</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>24</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
     </row>
-    <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>25</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
     </row>
-    <row r="27" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>26</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>27</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
     </row>
-    <row r="29" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>28</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
     </row>
-    <row r="30" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>29</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
     </row>
-    <row r="31" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>30</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
     </row>
-    <row r="32" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>31</v>
       </c>

--- a/Task_List.xlsx
+++ b/Task_List.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Task List" sheetId="1" r:id="rId1"/>
-    <sheet name="Task CheckList" sheetId="2" r:id="rId2"/>
+    <sheet name="Formula Computation" sheetId="4" r:id="rId2"/>
+    <sheet name="Task CheckList" sheetId="2" r:id="rId3"/>
+    <sheet name="Notes" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="317">
   <si>
     <t>PROGRESS</t>
   </si>
@@ -611,7 +613,590 @@
   </si>
   <si>
     <t>New Table: [HR].[Employee_Attachment_MD]
-SP = [HR].[spINSERT_EMPLOYEE_ATTACHMENT]</t>
+SP = [HR].[spINSERT_EMPLOYEE_ATTACHMENT], 
+[HR].[spGET_EMPLOYEE_ATTACHMENTS],
+[HR].[spREMOVE_EMPLOYEE_ATTACHMENTS]</t>
+  </si>
+  <si>
+    <t>Re arrange Employee Status Code for smooth identification of Active and Inactive Employee</t>
+  </si>
+  <si>
+    <t>Adding Table :
+[xSys].[Employee_StatusCode_RF]
+Adding Relationship of [xSys].[Employee_StatusCode_RF] and [HR].[Utility_Employment_Status_RF] = field (Sys_Employee_StatusCode)</t>
+  </si>
+  <si>
+    <t>Create Employment Type</t>
+  </si>
+  <si>
+    <t>Adding Table :
+[HR].[Utility_Employment_Type_RF]
+SP : [HR].[spGET_EMPLOYMENT_TYPE]</t>
+  </si>
+  <si>
+    <t>*** Isolate the function of Employment Details Updating</t>
+  </si>
+  <si>
+    <t>Adding Table : [HR].[Employee_Employment_Details],[HR].[Employee_Govt_ID],[HR].[Employee_Application_Record]
+Stored Procedure: [HR].[spINSERT_UPDATE_EMPLOYMENT_DETAILS], [HR].[spINSERT_UPDATE_EMPLOYEE_GOVT_ID], [HR].[spINSERT_UPDATE_EMPLOYEE_APPLICATION_RECORD], [HR].[spGET_FULL_EMPLOYEE_LIST]</t>
+  </si>
+  <si>
+    <t>Employee Children</t>
+  </si>
+  <si>
+    <t>Transfer Incase of Emergency in Family Section Transaction</t>
+  </si>
+  <si>
+    <t>MODIY TABLE:
+[HR].[Employee_Family_MD] adding 3 fields, ContactPerson, ContactNumber and ContactRelationship
+NEW STORED PROCEDURES:
+[HR].[spINSERT_UPDATE_EMPLOYEE_FAMILY_DATA]</t>
+  </si>
+  <si>
+    <t>Minimize Basic Information</t>
+  </si>
+  <si>
+    <t>Create New Stored Procedure:
+[HR].[spINSERT_UPDATE_EMPLOYEE_BASIC_DATA]</t>
+  </si>
+  <si>
+    <t>Adding Table:
+[HR].[Employee_Family_Children_RF]
+Stored Procedures:
+[HR].[spINSERT_UPDATE_EMPLOYEE_CHILDREN],
+[HR].[spGET_EMPLOYEE_CHILDREN],
+[HR].[spREMOVE_EMPLOYEE_CHILDREN]</t>
+  </si>
+  <si>
+    <t>Create Employee Employment History</t>
+  </si>
+  <si>
+    <t>Create New Table:
+[HR].[Employee_Previous_Employment_Record_RF]
+Stored Procedures:
+[HR].[spINSERT_UPDATE_EMPLOYEE_PREVIOUS_EMPLOYMENT_HISTORY]
+[HR].[spREMOVE_EMPLOYMENT_HISTORY]</t>
+  </si>
+  <si>
+    <t>Payslip Module Entry Page, display total Loan seperately.</t>
+  </si>
+  <si>
+    <t>Update Source Code only and Design of Payslip (Inhouse) and (Store)</t>
+  </si>
+  <si>
+    <t>Manual Entry of 13th Month Pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table : [Payroll].[Manual_13thMonth_TF]
+Stored Procedures:
+[Payroll].[spGET_EMPLOYEE_LIST_MANUAL_13TH_MONTH]
+[Payroll].[spGET_EMPLOYEE_13TH_TOTALWORKSINYEAR]
+[Payroll].[spINSERT_UPDATE_EMPLOYEE_13TH_MONTH_MANUAL]
+</t>
+  </si>
+  <si>
+    <t>Manual 13th Month Report(payslip format) and Billing Format</t>
+  </si>
+  <si>
+    <t>12.08.2019</t>
+  </si>
+  <si>
+    <t>Create Report Files and Views
+[Payroll].[VR_13TH_MONTH],
+[Payroll].[VR_13TH_MONTH_SUMMARY_COMPANY]
+Pay13Month.rpt and Summary_List_Manual_13thMonth.rpt</t>
+  </si>
+  <si>
+    <t>Sorting and Fix displaying of Employee Status</t>
+  </si>
+  <si>
+    <t>12.09.2019</t>
+  </si>
+  <si>
+    <t>Store Procedure: 
+[HR].[spGET_FULL_EMPLOYEE_LIST], [HR].[spGET_EMPLOYEE_LIST_LW],
+[Payroll].[spGET_EMPLOYEE_LIST_MANUAL_13TH_MONTH] By adding First_Name Field in Query of Order by.</t>
+  </si>
+  <si>
+    <t>Removing Employee Data</t>
+  </si>
+  <si>
+    <t>Adding new Field in table [HR].[Employee_MD]
+IsRemoved(bit), DateRemoved(DateTime)
+Create New Store Procedure:
+[HR].[spREMOVE_EMPLOYEE_DATA]</t>
+  </si>
+  <si>
+    <t>Addin Single Saving in Manual 13th Month Entry</t>
+  </si>
+  <si>
+    <t>***************** 2020 ****************************************</t>
+  </si>
+  <si>
+    <t>02.02.2020</t>
+  </si>
+  <si>
+    <t>Payslip Regular Holiday * 200 and Special Holiday * 130
+(Not Present Reg Holiday = * 100, Not Present Special Holiday * nothing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT NEW FIELDS IN
+TABLE:
+[Payroll].[Payroll_Employee_TF] (RegularHolidayNP_Qty,RegularHolidayNP,SpecialHolidayNP_Qty,SpecialHolidayNP)
+[Payroll].[Payroll_Fixed_Value_RF](RHN,SHN)
+Stored Procedure:
+[Payroll].[GET_REGULAR_HOLIDAY_NP],
+[Payroll].[GET_SPECIAL_HOLIDAY_NP],
+[Payroll].[spINSERT_UPDATE_EMPLOYEE_PAYROLL_TRANSACTION]
+******
+View
+[Payroll].[VR_PAYROLL_PAYSLIP]
+Reports Files
+Payslips.rpt and Payslips_Branch.rpt
+</t>
+  </si>
+  <si>
+    <t>02.10.2020</t>
+  </si>
+  <si>
+    <t>End of Service Function</t>
+  </si>
+  <si>
+    <t>02.26.2020</t>
+  </si>
+  <si>
+    <t>Additional Data field on [HR].Employee_Employment_Details
+* EOSDate and EOSRemarks
+Stored Procedures:
+[HR].[spINSERT_UPDATE_EMPLOYEE_EOS]</t>
+  </si>
+  <si>
+    <t>Adding Company Billing, to Isolate billing of Gov't Dues.</t>
+  </si>
+  <si>
+    <t>02.28.2020</t>
+  </si>
+  <si>
+    <t>03.01.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added new Field in Gov't ID table
+*BillingCompanyCode
+Store Procedure: 
+-Update  [HR].[spINSERT_UPDATE_EMPLOYEE_GOVT_ID]
+-Update  [Payroll].[spINSERT_UPDATE_EMPLOYEE_PAYROLL_TRANSACTION]
+-Update [Payroll].[REPORT_COMPANY_FOR_BIR_SUMMARY]
+</t>
+  </si>
+  <si>
+    <t>Disabling Access of End Of Service Employee in Payroll/Payslip Module</t>
+  </si>
+  <si>
+    <t>03.02.2020</t>
+  </si>
+  <si>
+    <t>Store Procedure: 
+- Update [Payroll].[spGET_EMPLOYEE_SALARY]</t>
+  </si>
+  <si>
+    <t>03.08.2020</t>
+  </si>
+  <si>
+    <t>Logs Company To Bill Record of Employee</t>
+  </si>
+  <si>
+    <t>Automate Voucher computation once Payslip already process.</t>
+  </si>
+  <si>
+    <t>03.09.2020</t>
+  </si>
+  <si>
+    <t>03.10.2020</t>
+  </si>
+  <si>
+    <t>Stored Procedure
+-Update [Payroll].[spINSERT_UPDATE_EMPLOYEE_PAYROLL_TRANSACTION]
+-Update [Payroll].[GET_VOUCHER_EMPLOYEE_COMPUTATION]
+Views
+-Update Payroll.VR_PAYROLL_VOUCHER
+Report FileName
+-PayVoucher.rpt</t>
+  </si>
+  <si>
+    <t>Gov't ID Incomplete remove TIN ID in condition</t>
+  </si>
+  <si>
+    <t>Fixing Problem in Payslip some employee process the payslip not showing in report</t>
+  </si>
+  <si>
+    <t>Views
+-Update Payroll.VR_PAYROLL_PAYSLIP</t>
+  </si>
+  <si>
+    <t>Pulling method of Gov't Dues Computation base on prev month 2nd cut off + current month 1st cut off</t>
+  </si>
+  <si>
+    <t>Stored Procedure:
+-Update [Payroll].[GET_PHILHEALTH_AMOUNT]
+-Update [Payroll].[GET_SSS_AMOUNT]
+-Update [Payroll].[GET_WTAX]
+-Update [Payroll].[spINSERT_UPDATE_EMPLOYEE_PAYROLL_TRANSACTION]</t>
+  </si>
+  <si>
+    <t>UPLOADED (03.11.2020)</t>
+  </si>
+  <si>
+    <t>Stored Procedure
+-Create [Payroll].[spGET_EMPLOYEE_GOVT_DUES_COMPANY_RECORDS]</t>
+  </si>
+  <si>
+    <t>Views
+-Update HR.VR_EMPLOYEE_NO_GOVT_IDs
+Report FileName
+-No_Govt_IDs.rpt</t>
+  </si>
+  <si>
+    <t>Prevent Displaying Loan deduction once Loan Date not yet meet.</t>
+  </si>
+  <si>
+    <t>03.11.2020</t>
+  </si>
+  <si>
+    <t>03.04.2020</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stored Procedure:
+- Update  [Payroll][.spGET_EMPLOYEE_SALARY_LOAN_BALANCE]
+- Update [Payroll][.spGET_EMPLOYEE_SALARY_LOAN_AMORTIZATION]
+- Update  [Payroll][.spGET_EMPLOYEE_SSS_LOAN_BALANCE]
+- Update [Payroll][.spGET_EMPLOYEE_SSS_LOAN_AMORTIZATION]
+- Update  [Payroll][.spGET_EMPLOYEE_PAGIBIG_LOAN_BALANCE]
+- Update [Payroll][.spGET_EMPLOYEE_PAGIBIG_LOAN_AMORTIZATION]
+</t>
+  </si>
+  <si>
+    <t>Leave With Pay will be entry by HR Department and automatically pullout by Payroll process</t>
+  </si>
+  <si>
+    <t>Performance Bonus inclusion of (Days work +  Leave with Pay)</t>
+  </si>
+  <si>
+    <t>base on Ma'am Grace</t>
+  </si>
+  <si>
+    <t>Implement User Account Setup</t>
+  </si>
+  <si>
+    <t>Ma'am Jemih need to update HR Side.</t>
+  </si>
+  <si>
+    <t>Once date resign trigger give 15 Days grace period to compute payroll</t>
+  </si>
+  <si>
+    <t>Ma'am Jemih</t>
+  </si>
+  <si>
+    <t>Once resign but covered by 2nd cut off don’t compute Gov't Due</t>
+  </si>
+  <si>
+    <t>Create New Company Account for dummy and edit Company to Bill.</t>
+  </si>
+  <si>
+    <t>End of Service Effectivity Date Notification.</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>End of Service Effectivity Date trigger(Disable Employee Payroll Process)</t>
+  </si>
+  <si>
+    <t>03.12.2020</t>
+  </si>
+  <si>
+    <t>Create Manual Entry for Gov't Dues</t>
+  </si>
+  <si>
+    <t>03.20.2020</t>
+  </si>
+  <si>
+    <t>Table:
+- Create xSystem.[Months_RF]
+- Create [Payroll].[Payroll_GovtDues_Manual_TF]
+Stored Procedure:
+- Create [xSystem].[spGET_MONTHS_LIST]
+- Create [Payroll].[spGET_EMPLOYEE_GOVTDUES_DAYSPRESENT]
+- Create [Payroll].[spGET_EMPLOYEE_MANUAL_GOVTDUES_SSS]
+- Create [Payroll].[spGET_EMPLOYEE_MANUAL_GOVTDUES_PH]
+- Create [Payroll].[spGET_EMPLOYEE_MANUAL_GOVTDUES_HDMF]
+-Create [Payroll].[spINSERT_UPDATE_EMPLOYEE_MANUAL_GOVTDUES]
+View:
+-Create [Payroll].[VR_EMPLOYEE_GOVTDUE_MANUAL]</t>
+  </si>
+  <si>
+    <t>03.22.2020</t>
+  </si>
+  <si>
+    <t>UPLOADED (03.24.2020)</t>
+  </si>
+  <si>
+    <t>Table:
+- New [HR].[Employee_EOS_RF]
+Stored Procedure: 
+- Update [HR].[spINSERT_UPDATE_EMPLOYEE_EOS]
+- Update [HR].[spGET_FULL_EMPLOYEE_LIST]
+- New [HR].[spGET_RESIGN_APPLICATION]</t>
+  </si>
+  <si>
+    <t>Leave Entry connected to Payroll Process</t>
+  </si>
+  <si>
+    <t>03.30.2020</t>
+  </si>
+  <si>
+    <t>Modification of Employee Listing Display with Icon</t>
+  </si>
+  <si>
+    <t>04.10.2020</t>
+  </si>
+  <si>
+    <t>04.11.2020</t>
+  </si>
+  <si>
+    <t>Stored Procedure:
+- UPDATE [Payroll].[spGET_EMPLOYEE_SALARY]</t>
+  </si>
+  <si>
+    <t>Table:
+- Added field PPID, IsIncludeToPayroll,IsHalfday,IsPayrollProcess,PayableLeave, IsCancel in [Payroll].[Employee_Leaves_TF]
+Stored Procedure:
+- Update [Payroll].[spINSERT_UPDATE_EMPLOYEE_LEAVES]
+- Create [Payroll].[spGET_EMPLOYEE_LEAVE_PAYABLE]
+- Update [Payroll].[spINSERT_UPDATE_EMPLOYEE_PAYROLL_TRANSACTION]
+- Create [Payroll].[spREMOVE_UPDATE_EMPLOYEE_LEAVES]</t>
+  </si>
+  <si>
+    <t>Uploade Image of Employee</t>
+  </si>
+  <si>
+    <t>05.01.2020</t>
+  </si>
+  <si>
+    <t>Table:
+Added field (EmployeePicture) [HR].[Employee_MD]
+Stored Procedures:
+-Create [HR].[spINSERT_UPDATE_EMPLOYEE_PICTURE]
+-Create [HR].[spGET_EMPLOYEE_PICTURE]
+Resources:
+Added Folder name (EmployeePictures) in existing folder (Uploads)</t>
+  </si>
+  <si>
+    <t>UPLOADED(06.24.2020)</t>
+  </si>
+  <si>
+    <t>*** JUNE 2020 ***</t>
+  </si>
+  <si>
+    <t>PAYROLL - PAYSLIP</t>
+  </si>
+  <si>
+    <t>FORMULA</t>
+  </si>
+  <si>
+    <t>BASIC PAY</t>
+  </si>
+  <si>
+    <t>RatePerDay * #work days present</t>
+  </si>
+  <si>
+    <t>LEAVE</t>
+  </si>
+  <si>
+    <t>RatePerDay * #leave use</t>
+  </si>
+  <si>
+    <t>PAY-OFF</t>
+  </si>
+  <si>
+    <t>RatePerDay * #payoff use</t>
+  </si>
+  <si>
+    <t>REGULAR OT</t>
+  </si>
+  <si>
+    <t>REGULAR HOLIDAY OT</t>
+  </si>
+  <si>
+    <t>((RatePerDay/8) * 2.60) * #hours</t>
+  </si>
+  <si>
+    <t>SPECIAL HOLIDAY OT</t>
+  </si>
+  <si>
+    <t>((RatePerDay/8) * 1.69) * #hours</t>
+  </si>
+  <si>
+    <t>REGULAR HOLIDAY</t>
+  </si>
+  <si>
+    <t>(RatePerDay * 1) * #day present</t>
+  </si>
+  <si>
+    <t>SPECIAL HOLIDAY</t>
+  </si>
+  <si>
+    <t>(RatePerDay * .30) * #day present</t>
+  </si>
+  <si>
+    <t>ABSENCE</t>
+  </si>
+  <si>
+    <t>RatePerDay * #work absent</t>
+  </si>
+  <si>
+    <t>TARDINESS</t>
+  </si>
+  <si>
+    <t>((RatePerDay/8) / 60 ) * #minutes</t>
+  </si>
+  <si>
+    <t>UNDERTIME</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>RangeCompensation(BasicPay)</t>
+  </si>
+  <si>
+    <t>PhilHealth</t>
+  </si>
+  <si>
+    <t>RangeCompensation(BasicPay) 
+If BasicPay &lt; 10,000  = 275
+If BasicPay &gt; 10,000 and BasicPay &lt; 39,999.99 = BasicPay * 2.75
+If BasicPay &gt; 40,000 and up = 1100</t>
+  </si>
+  <si>
+    <t>PagIbig</t>
+  </si>
+  <si>
+    <t>Fixed 100</t>
+  </si>
+  <si>
+    <t>Gross Income</t>
+  </si>
+  <si>
+    <t>Basic Pay + Regular OT + Regular Holiday OT + Special Holiday OT + Regular Holiday + Special Holiday</t>
+  </si>
+  <si>
+    <t>Deduction Income</t>
+  </si>
+  <si>
+    <t>Taxable Income</t>
+  </si>
+  <si>
+    <t>Gross Income - (Absence + Tardiness + Undertime + SSS + PhilHealth + PagIbig)</t>
+  </si>
+  <si>
+    <t>With Holding Tax</t>
+  </si>
+  <si>
+    <t>Per cut off basis:
+If Taxable Income &lt; 10,417 = 0
+If Taxable Income &gt; 10,418 and &lt; 16,666 = (Taxable Income - 10,418) * 0.20
+If Taxable Income &gt; 16,667 and &lt; 33,332 = (Taxable Income - 16,667) * 0.25 + 1,250</t>
+  </si>
+  <si>
+    <t>NET PAY</t>
+  </si>
+  <si>
+    <t>Gross Income - (Deduction Income + With Holding Tax)</t>
+  </si>
+  <si>
+    <t>13th Month</t>
+  </si>
+  <si>
+    <t>Basic Pay + Paid Leaves / 12</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>https://coins.ph/blog/how-to-compute-for-13th-month-pay-philippines/</t>
+  </si>
+  <si>
+    <t>Absence + Tardiness + UnderTime + SSS + PhilHealth + PagIbig 
++ Boarding + Cash Advance + Emergency Loan + Salary Loan + SSS LOAN + Pagibig LOAN</t>
+  </si>
+  <si>
+    <t>Computed 13th Month per month conjunction with Payslip Process Action</t>
+  </si>
+  <si>
+    <t>6.26.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table:
+-CREATE [Payroll].[Employee_13thMonth_TF]
+Stored Procedures:
+-CREATE [Payroll].[spINSERT_UPDATE_EMPLOYEE_13TH_MONTH]  * (Incorporate to [Payroll].[spINSERT_UPDATE_EMPLOYEE_PAYROLL_TRANSACTION])
+-UPDATE [Payroll].[spINSERT_UPDATE_EMPLOYEE_PAYROLL_TRANSACTION] </t>
+  </si>
+  <si>
+    <t>06.26.2020</t>
+  </si>
+  <si>
+    <t>Summary Report 13th Month Breakdown Per Company</t>
+  </si>
+  <si>
+    <t>Adjust text-font of Payslip and Performance Bonus Inhouse&amp;Store</t>
+  </si>
+  <si>
+    <t>Adjust Inhouse Performance Bonus Company Heading</t>
+  </si>
+  <si>
+    <t>Views:
+-UPDATE [Payroll].[VR_PAYROLL_VOUCHER]</t>
+  </si>
+  <si>
+    <t>Double payslip of 1 employee</t>
+  </si>
+  <si>
+    <t>Update Report File of Payslip and Voucher.rpt
+FONT USE in DotMatrix Printer: Calibri Light</t>
+  </si>
+  <si>
+    <t>ULOADED 6.26.2020</t>
+  </si>
+  <si>
+    <t>Edit Entry of Employee Loan</t>
+  </si>
+  <si>
+    <t>6.28.2020</t>
+  </si>
+  <si>
+    <t>Table
+- Adding field name DU in Payroll.Employee_Loan_MF
+Store Procedure
+-UPDATE [Payroll].[spINSERT_UPDATE_EMPLOYEE_LOAN]
+-CREATE  [Payroll].[spEDIT_UPDATE_EMPLOYEE_LOAN]</t>
+  </si>
+  <si>
+    <t>06.30.2020</t>
+  </si>
+  <si>
+    <t>UPLOADED 6.30.2020</t>
+  </si>
+  <si>
+    <t>((RatePerDay/8) * 1.25) * #hours   // MODIFY Period June 1-15 USE THIS FORMULA ((RatePerDay/8) * 1) * #hours</t>
+  </si>
+  <si>
+    <t>Views:
+-UPDATE [Payroll].[VR_PAYROLL_PAYSLIP]
+(Need to add filter LoanCode = 'SA' and LoanCode Is Null) UPDATE Need to remove Table of Loan MF and filter only SA on query command.</t>
   </si>
 </sst>
 </file>
@@ -621,7 +1206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,8 +1238,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -670,6 +1262,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,7 +1369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -861,9 +1471,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -877,8 +1484,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1162,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:B45"/>
+    <sheetView topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,16 +1849,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -2016,20 +2684,230 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="101.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="57"/>
+    </row>
+    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58"/>
+      <c r="B2" s="59" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="58"/>
+      <c r="B14" s="60"/>
+    </row>
+    <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="58"/>
+      <c r="B22" s="60"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="C24" t="s">
+        <v>296</v>
+      </c>
+      <c r="D24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C52" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="89.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="84.7109375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="141.42578125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2134,7 +3012,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>5</v>
       </c>
@@ -2196,14 +3074,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="37" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35">
         <v>8</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
-      <c r="O9" s="37" t="s">
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="O9" s="36" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2223,7 +3101,7 @@
       <c r="E10" s="26">
         <v>43715</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="39" t="s">
         <v>142</v>
       </c>
       <c r="O10" t="s">
@@ -2348,87 +3226,87 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+    <row r="17" spans="1:6" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="35">
         <v>16</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="26">
+      <c r="C17" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="37">
         <v>43734</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="37">
         <v>43736</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="38" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+    <row r="18" spans="1:6" s="36" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="35">
         <v>17</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="26">
+      <c r="C18" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="37">
         <v>43735</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="37">
         <v>43736</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="38" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+    <row r="19" spans="1:6" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="35">
         <v>18</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="26">
+      <c r="C19" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="37">
         <v>43735</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="37">
         <v>43739</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="38" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+    <row r="20" spans="1:6" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="35">
         <v>19</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="26">
+      <c r="C20" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="37">
         <v>43737</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="37">
         <v>43739</v>
       </c>
       <c r="F20" s="41" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>20</v>
       </c>
@@ -2436,153 +3314,775 @@
         <v>163</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="D21" s="26">
         <v>43739</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="25" t="s">
+      <c r="E21" s="26">
+        <v>43748</v>
+      </c>
+      <c r="F21" s="42" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>21</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-    </row>
-    <row r="23" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="26">
+        <v>43749</v>
+      </c>
+      <c r="E22" s="26">
+        <v>43750</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>22</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-    </row>
-    <row r="24" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="26">
+        <v>43755</v>
+      </c>
+      <c r="E23" s="26">
+        <v>43755</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>23</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-    </row>
-    <row r="25" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="26">
+        <v>43760</v>
+      </c>
+      <c r="E24" s="26">
+        <v>43765</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>24</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-    </row>
-    <row r="26" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="26">
+        <v>43767</v>
+      </c>
+      <c r="E25" s="26">
+        <v>43767</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>25</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-    </row>
-    <row r="27" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="26">
+        <v>43767</v>
+      </c>
+      <c r="E26" s="26">
+        <v>43767</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>26</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-    </row>
-    <row r="28" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="26">
+        <v>43767</v>
+      </c>
+      <c r="E27" s="26">
+        <v>43767</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>27</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-    </row>
-    <row r="29" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="26">
+        <v>43767</v>
+      </c>
+      <c r="E28" s="26">
+        <v>43768</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>28</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-    </row>
-    <row r="30" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="26">
+        <v>43768</v>
+      </c>
+      <c r="E29" s="26">
+        <v>43768</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>29</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="B30" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="26">
+        <v>43768</v>
+      </c>
+      <c r="E30" s="26">
+        <v>43779</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>30</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+      <c r="B31" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>31</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-    </row>
-    <row r="33" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>32</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-    </row>
-    <row r="34" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>33</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-    </row>
-    <row r="35" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" s="42"/>
+    </row>
+    <row r="35" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>34</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-    </row>
-    <row r="36" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47"/>
+    </row>
+    <row r="36" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>35</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-    </row>
-    <row r="37" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>36</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-    </row>
-    <row r="38" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>37</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-    </row>
-    <row r="39" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="G38" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>38</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-    </row>
-    <row r="40" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="26"/>
-    </row>
-    <row r="41" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="26"/>
-    </row>
-    <row r="42" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="26"/>
-    </row>
-    <row r="43" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="26"/>
+      <c r="B39" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G39" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="24">
+        <v>39</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24">
+        <v>40</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="24">
+        <v>41</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="G42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="24">
+        <v>42</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G43" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="24">
+        <v>43</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A45" s="24">
+        <v>44</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="24">
+        <v>45</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A47" s="24">
+        <v>46</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A48" s="24">
+        <v>47</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="24">
+        <v>48</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A50" s="24">
+        <v>49</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="53" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="52">
+        <v>50</v>
+      </c>
+      <c r="B51" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="55"/>
+    </row>
+    <row r="52" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A52" s="24">
+        <v>51</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="24">
+        <v>52</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="24">
+        <v>53</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="G54" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="24">
+        <v>54</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="G55" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="24">
+        <v>55</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="G56" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A57" s="24">
+        <v>56</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="24">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="24">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -2592,6 +4092,236 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="53" style="39" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="49"/>
+      <c r="B1" s="50" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>7</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>8</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>9</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>